--- a/artfynd/A 4538-2023.xlsx
+++ b/artfynd/A 4538-2023.xlsx
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>571907.6526491919</v>
+        <v>571908</v>
       </c>
       <c r="R3" t="n">
-        <v>6300255.027449341</v>
+        <v>6300255</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -880,19 +880,9 @@
           <t>2022-10-03</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2022-10-03</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
